--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathalia\Documents\GitHub\CienciasSociales\fuentes\contenidos\grado08\guion12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8340" windowHeight="6810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8340" windowHeight="6816"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="217">
   <si>
     <t>Asignatura</t>
   </si>
@@ -640,46 +645,37 @@
     <t>Actividades sobre El gobierno democrático</t>
   </si>
   <si>
-    <t>Incluir imágenes, fichas con texto y fchas con actividades</t>
-  </si>
-  <si>
-    <t>Formular 10 preguntas del tema de tipo interpretativo, argumentativo y propositivo.</t>
-  </si>
-  <si>
     <t>La democracia y la  participación  ciudadanía</t>
   </si>
   <si>
     <t>Interactivo para reconocer la importancia de la participación ciudadana en los gobiernos democráticos</t>
   </si>
   <si>
-    <t>Presentar imágenes, información y actividades que permitan al estudiante conocer la evolucipon de la participación ciudadana en diferentes espacios y tiempos y reflexionar acerca del compromiso de cada ciudadano en la contrucción y funcionamiento de la democracia.</t>
-  </si>
-  <si>
     <t>Actividad para reconocer elementos y valores que hacen posible el ejercicio democrático</t>
   </si>
   <si>
     <t>Recurso M2C-01</t>
   </si>
   <si>
-    <t>Incluir textos breves que informen acerca de los diferentes mecanismos de participación democrática</t>
-  </si>
-  <si>
-    <t>Adaptar para Colombia</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema La democracia</t>
   </si>
   <si>
     <t>Banco de actividades: La democracia</t>
   </si>
   <si>
-    <t>Dar orientaciones para que los estudiantes escojan un problema común (poner ejemplos) , se docuementen al respecto, hagan puesta en común,  propongan y escojan alternativas de solución. Buscar que el ejercicio consolide lo aprendido sobre la forma de gobierno democrática y la participación ciudadana.</t>
-  </si>
-  <si>
     <t>Actividad que propone desarrollar un ejercicio de demoracia deliberativa en torno a un problema de la comunidad</t>
   </si>
   <si>
     <t>Recurso F10B-01</t>
+  </si>
+  <si>
+    <t>Asignado a Diego Espitia (11/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Martha García (11/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (11/03/16)</t>
   </si>
 </sst>
 </file>
@@ -945,49 +941,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,6 +961,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,7 +1096,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,127 +1307,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="18" style="15" customWidth="1"/>
     <col min="5" max="5" width="31" style="15" customWidth="1"/>
     <col min="6" max="6" width="26" style="37" customWidth="1"/>
     <col min="7" max="7" width="41" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="44.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="15" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="44.88671875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="15" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="37.88671875" style="37" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="37" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="19" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" style="19" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="18" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="15"/>
+    <col min="17" max="17" width="9.5546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="19" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" style="19" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="50" t="s">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="48"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="56"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1460,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1503,9 +1499,7 @@
         <v>54</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
-        <v>206</v>
-      </c>
+      <c r="O4" s="12"/>
       <c r="P4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1558,9 @@
       <c r="N5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="P5" s="12" t="s">
         <v>20</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1623,9 +1619,7 @@
       <c r="N6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>207</v>
-      </c>
+      <c r="O6" s="12"/>
       <c r="P6" s="12" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1649,7 @@
       <c r="C7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E7" s="16"/>
@@ -1682,7 +1676,9 @@
       <c r="N7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="P7" s="12" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1708,7 @@
       <c r="C8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="17"/>
@@ -1757,7 +1753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1767,7 +1763,7 @@
       <c r="C9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1796,7 +1792,9 @@
       <c r="N9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="P9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1824,7 @@
       <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -1873,7 +1871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1883,7 +1881,7 @@
       <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="17"/>
@@ -1928,7 +1926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1936,7 @@
       <c r="C12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -1967,7 +1965,9 @@
       <c r="N12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="P12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="C13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="40" t="s">
         <v>203</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -2026,9 +2026,7 @@
       <c r="N13" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O13" s="12" t="s">
-        <v>207</v>
-      </c>
+      <c r="O13" s="12"/>
       <c r="P13" s="12" t="s">
         <v>19</v>
       </c>
@@ -2048,66 +2046,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="57" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+    <row r="14" spans="1:21" s="44" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14" s="55">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="42">
         <v>11</v>
       </c>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="K14" s="54" t="s">
+      <c r="J14" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="K14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="L14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="54" t="s">
+      <c r="M14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="P14" s="55" t="s">
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="44">
         <v>6</v>
       </c>
-      <c r="R14" s="57" t="s">
+      <c r="R14" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="S14" s="57" t="s">
+      <c r="S14" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="T14" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="U14" s="57" t="s">
+      <c r="T14" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="U14" s="44" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2113,7 @@
       <c r="C15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="40" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -2134,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2146,7 +2142,9 @@
       <c r="N15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="12"/>
+      <c r="O15" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="P15" s="12" t="s">
         <v>19</v>
       </c>
@@ -2160,13 +2158,13 @@
         <v>184</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U15" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2176,7 +2174,7 @@
       <c r="C16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="40" t="s">
         <v>157</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -2203,10 +2201,10 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>19</v>
@@ -2227,7 +2225,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2237,13 +2235,13 @@
       <c r="C17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="54" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2288,7 +2286,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2298,11 +2296,11 @@
       <c r="C18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="22" t="s">
         <v>169</v>
       </c>
@@ -2325,7 +2323,9 @@
       <c r="N18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="P18" s="12" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="X18" s="23"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="C19" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="40" t="s">
         <v>157</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -2385,9 +2385,7 @@
       <c r="N19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>207</v>
-      </c>
+      <c r="O19" s="12"/>
       <c r="P19" s="12" t="s">
         <v>19</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2417,7 +2415,7 @@
       <c r="C20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="40" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -2434,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>20</v>
@@ -2446,9 +2444,7 @@
       <c r="N20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>217</v>
-      </c>
+      <c r="O20" s="12"/>
       <c r="P20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2464,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -2478,7 +2474,7 @@
       <c r="C21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="40" t="s">
         <v>166</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -2505,9 +2501,7 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="12" t="s">
-        <v>214</v>
-      </c>
+      <c r="O21" s="12"/>
       <c r="P21" s="12" t="s">
         <v>19</v>
       </c>
@@ -2527,7 +2521,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +2531,7 @@
       <c r="C22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -2554,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="8"/>
@@ -2565,7 +2559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2575,7 +2569,7 @@
       <c r="C23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -2624,7 +2618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -2634,7 +2628,7 @@
       <c r="C24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -2651,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>20</v>
@@ -2683,7 +2677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="16"/>
       <c r="C25" s="5"/>
@@ -2706,7 +2700,7 @@
       <c r="T25" s="14"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="16"/>
       <c r="C26" s="5"/>
@@ -2729,7 +2723,7 @@
       <c r="T26" s="14"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="16"/>
       <c r="C27" s="5"/>
@@ -2752,7 +2746,7 @@
       <c r="T27" s="14"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="16"/>
       <c r="C28" s="5"/>
@@ -2775,7 +2769,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="16"/>
       <c r="C29" s="5"/>
@@ -2798,7 +2792,7 @@
       <c r="T29" s="14"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="16"/>
       <c r="C30" s="5"/>
@@ -2821,7 +2815,7 @@
       <c r="T30" s="14"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="16"/>
       <c r="C31" s="5"/>
@@ -2844,7 +2838,7 @@
       <c r="T31" s="14"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="16"/>
       <c r="C32" s="5"/>
@@ -2867,7 +2861,7 @@
       <c r="T32" s="14"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="16"/>
       <c r="C33" s="5"/>
@@ -2890,7 +2884,7 @@
       <c r="T33" s="14"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="16"/>
       <c r="C34" s="5"/>
@@ -2913,7 +2907,7 @@
       <c r="T34" s="14"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="16"/>
       <c r="C35" s="5"/>
@@ -2936,7 +2930,7 @@
       <c r="T35" s="14"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
       <c r="C36" s="5"/>
@@ -2959,7 +2953,7 @@
       <c r="T36" s="14"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="16"/>
       <c r="C37" s="25"/>
@@ -2982,7 +2976,7 @@
       <c r="T37" s="14"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="16"/>
       <c r="C38" s="25"/>
@@ -3005,7 +2999,7 @@
       <c r="T38" s="14"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="16"/>
       <c r="C39" s="25"/>
@@ -3028,7 +3022,7 @@
       <c r="T39" s="14"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="16"/>
       <c r="C40" s="25"/>
@@ -3051,7 +3045,7 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="16"/>
       <c r="C41" s="25"/>
@@ -3074,7 +3068,7 @@
       <c r="T41" s="14"/>
       <c r="U41" s="13"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
@@ -3092,7 +3086,7 @@
       <c r="O42" s="30"/>
       <c r="P42" s="30"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
@@ -3110,7 +3104,7 @@
       <c r="O43" s="30"/>
       <c r="P43" s="30"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
@@ -3128,7 +3122,7 @@
       <c r="O44" s="30"/>
       <c r="P44" s="30"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
@@ -3146,7 +3140,7 @@
       <c r="O45" s="30"/>
       <c r="P45" s="30"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
@@ -3164,7 +3158,7 @@
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
@@ -3182,7 +3176,7 @@
       <c r="O47" s="30"/>
       <c r="P47" s="30"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
@@ -3200,7 +3194,7 @@
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="27"/>
       <c r="C49" s="28"/>
@@ -3218,7 +3212,7 @@
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
@@ -3236,7 +3230,7 @@
       <c r="O50" s="30"/>
       <c r="P50" s="30"/>
     </row>
-    <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="27"/>
       <c r="C51" s="28"/>
@@ -3254,7 +3248,7 @@
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
@@ -3272,7 +3266,7 @@
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="27"/>
       <c r="C53" s="28"/>
@@ -3290,7 +3284,7 @@
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
@@ -3308,7 +3302,7 @@
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
     </row>
-    <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="26"/>
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
@@ -3326,7 +3320,7 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
@@ -3344,7 +3338,7 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
@@ -3362,7 +3356,7 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
@@ -3380,7 +3374,7 @@
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
     </row>
-    <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
@@ -3398,7 +3392,7 @@
       <c r="O59" s="30"/>
       <c r="P59" s="30"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
       <c r="B60" s="27"/>
       <c r="C60" s="28"/>
@@ -3416,7 +3410,7 @@
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="B61" s="27"/>
       <c r="C61" s="28"/>
@@ -3434,7 +3428,7 @@
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="26"/>
       <c r="B62" s="27"/>
       <c r="C62" s="28"/>
@@ -3452,7 +3446,7 @@
       <c r="O62" s="30"/>
       <c r="P62" s="30"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="26"/>
       <c r="B63" s="27"/>
       <c r="C63" s="28"/>
@@ -3470,7 +3464,7 @@
       <c r="O63" s="30"/>
       <c r="P63" s="30"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="26"/>
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
@@ -3488,7 +3482,7 @@
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
       <c r="B65" s="27"/>
       <c r="C65" s="28"/>
@@ -3506,7 +3500,7 @@
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="26"/>
       <c r="B66" s="27"/>
       <c r="C66" s="28"/>
@@ -3524,7 +3518,7 @@
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="26"/>
       <c r="B67" s="27"/>
       <c r="C67" s="28"/>
@@ -3542,7 +3536,7 @@
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
     </row>
-    <row r="68" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="26"/>
       <c r="B68" s="27"/>
       <c r="C68" s="28"/>
@@ -3560,7 +3554,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
       <c r="B69" s="27"/>
       <c r="C69" s="28"/>
@@ -3578,7 +3572,7 @@
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="26"/>
       <c r="B70" s="27"/>
       <c r="C70" s="28"/>
@@ -3596,7 +3590,7 @@
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
       <c r="B71" s="27"/>
       <c r="C71" s="28"/>
@@ -3614,193 +3608,203 @@
       <c r="O71" s="30"/>
       <c r="P71" s="30"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3812,16 +3816,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3872,7 +3866,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3886,27 +3880,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3947,7 +3941,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3966,7 +3960,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3985,7 +3979,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4001,7 +3995,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4012,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4035,7 +4029,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4050,7 +4044,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4065,7 +4059,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4080,7 +4074,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4095,7 +4089,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4110,7 +4104,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4125,7 +4119,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4140,7 +4134,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4155,7 +4149,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4170,7 +4164,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4184,7 +4178,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4198,7 +4192,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4212,7 +4206,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4226,7 +4220,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4241,7 +4235,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4256,7 +4250,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4271,7 +4265,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4286,7 +4280,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4301,7 +4295,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4316,7 +4310,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4331,7 +4325,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4346,7 +4340,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4361,7 +4355,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4376,7 +4370,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4391,7 +4385,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4406,7 +4400,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4421,7 +4415,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4436,7 +4430,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4451,7 +4445,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4466,7 +4460,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4481,7 +4475,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4496,7 +4490,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4511,7 +4505,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4526,7 +4520,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4541,7 +4535,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4556,7 +4550,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4571,7 +4565,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4586,7 +4580,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4601,7 +4595,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4616,7 +4610,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4631,7 +4625,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4646,7 +4640,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4658,7 +4652,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4670,7 +4664,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4683,7 +4677,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4696,7 +4690,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -4709,7 +4703,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4722,7 +4716,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4735,7 +4729,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4748,7 +4742,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -4761,7 +4755,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -4774,7 +4768,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4787,7 +4781,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4800,7 +4794,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4813,7 +4807,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -4826,7 +4820,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4839,7 +4833,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -4852,7 +4846,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -4865,7 +4859,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -4878,7 +4872,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -4891,7 +4885,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -4904,7 +4898,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -4917,7 +4911,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -4930,7 +4924,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4944,7 +4938,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4958,7 +4952,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4972,7 +4966,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4986,7 +4980,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5000,7 +4994,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5014,7 +5008,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5028,7 +5022,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5042,7 +5036,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5056,7 +5050,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5070,7 +5064,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5084,7 +5078,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5098,7 +5092,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5112,7 +5106,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5126,7 +5120,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5140,7 +5134,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5154,7 +5148,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5168,7 +5162,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5182,7 +5176,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5196,7 +5190,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5210,7 +5204,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5224,7 +5218,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5238,7 +5232,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5252,7 +5246,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5266,7 +5260,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5280,7 +5274,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5294,7 +5288,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5308,7 +5302,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5322,7 +5316,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5336,7 +5330,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5350,7 +5344,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5364,7 +5358,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5378,7 +5372,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5392,7 +5386,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5406,7 +5400,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5420,7 +5414,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5434,7 +5428,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5448,7 +5442,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5462,7 +5456,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5476,7 +5470,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5490,7 +5484,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5504,7 +5498,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5518,7 +5512,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5532,7 +5526,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5546,7 +5540,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5560,7 +5554,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5574,7 +5568,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5588,7 +5582,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5602,7 +5596,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5616,7 +5610,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5630,7 +5624,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5644,7 +5638,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5658,7 +5652,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5672,7 +5666,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5686,7 +5680,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5700,7 +5694,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5714,7 +5708,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5728,7 +5722,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5742,7 +5736,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5756,7 +5750,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5770,7 +5764,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5784,7 +5778,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5798,7 +5792,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="219">
   <si>
     <t>Asignatura</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>Asignado a Ana Hoyos (11/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Ana Hoyos (14/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Diego Espitia (14/03/16)</t>
   </si>
 </sst>
 </file>
@@ -962,6 +968,24 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -981,24 +1005,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,94 +1344,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="55" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1619,7 +1625,9 @@
       <c r="N6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="P6" s="12" t="s">
         <v>19</v>
       </c>
@@ -2238,10 +2246,10 @@
       <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="47" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2299,8 +2307,8 @@
       <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="22" t="s">
         <v>169</v>
       </c>
@@ -2385,7 +2393,9 @@
       <c r="N19" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="P19" s="12" t="s">
         <v>19</v>
       </c>
@@ -2598,7 +2608,9 @@
       <c r="N23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="12"/>
+      <c r="O23" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="P23" s="12" t="s">
         <v>19</v>
       </c>
@@ -3795,16 +3807,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3816,6 +3818,16 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="220">
   <si>
     <t>Asignatura</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Asignado a Diego Espitia (14/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Claudia García (18/03/16)</t>
   </si>
 </sst>
 </file>
@@ -968,24 +971,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1005,6 +990,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,7 +1318,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,94 +1347,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1505,7 +1508,9 @@
         <v>54</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="12" t="s">
+        <v>219</v>
+      </c>
       <c r="P4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2246,10 +2251,10 @@
       <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="54" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2307,8 +2312,8 @@
       <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="22" t="s">
         <v>169</v>
       </c>
@@ -3807,6 +3812,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3818,16 +3833,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t>Asignatura</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>Asignado a Claudia García (18/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Diego Espitia (17/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Martha García (18/03/16)</t>
   </si>
 </sst>
 </file>
@@ -971,6 +977,24 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -990,24 +1014,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,9 +1322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,94 +1353,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="55" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2251,10 +2257,10 @@
       <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="47" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2312,8 +2318,8 @@
       <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="22" t="s">
         <v>169</v>
       </c>
@@ -2459,7 +2465,9 @@
       <c r="N20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="P20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2674,7 +2682,9 @@
       <c r="N24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="12"/>
+      <c r="O24" s="12" t="s">
+        <v>220</v>
+      </c>
       <c r="P24" s="12" t="s">
         <v>20</v>
       </c>
@@ -3812,16 +3822,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3833,6 +3833,16 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="223">
   <si>
     <t>Asignatura</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>Asignado a Martha García (18/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Claudia García (20/03/16)</t>
   </si>
 </sst>
 </file>
@@ -977,24 +980,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1014,6 +999,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,94 +1356,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2102,7 +2105,9 @@
         <v>60</v>
       </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
+      <c r="O14" s="42" t="s">
+        <v>222</v>
+      </c>
       <c r="P14" s="42" t="s">
         <v>19</v>
       </c>
@@ -2257,10 +2262,10 @@
       <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="54" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2318,8 +2323,8 @@
       <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="22" t="s">
         <v>169</v>
       </c>
@@ -3822,6 +3827,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3833,16 +3848,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="224">
   <si>
     <t>Asignatura</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>Asignado a Claudia García (20/03/16)</t>
+  </si>
+  <si>
+    <t>Asignado a Claudia García (22/03/16)</t>
   </si>
 </sst>
 </file>
@@ -980,6 +983,24 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -999,24 +1020,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1329,8 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,94 +1359,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="55" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2262,10 +2265,10 @@
       <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="47" t="s">
         <v>167</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2290,7 +2293,9 @@
         <v>56</v>
       </c>
       <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="P17" s="12" t="s">
         <v>19</v>
       </c>
@@ -2323,8 +2328,8 @@
       <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="22" t="s">
         <v>169</v>
       </c>
@@ -3827,16 +3832,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3848,6 +3843,16 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="219">
   <si>
     <t>Asignatura</t>
   </si>
@@ -682,21 +682,6 @@
   </si>
   <si>
     <t>Asignado a Diego Espitia (14/03/16)</t>
-  </si>
-  <si>
-    <t>Asignado a Claudia García (18/03/16)</t>
-  </si>
-  <si>
-    <t>Asignado a Diego Espitia (17/03/16)</t>
-  </si>
-  <si>
-    <t>Asignado a Martha García (18/03/16)</t>
-  </si>
-  <si>
-    <t>Asignado a Claudia García (20/03/16)</t>
-  </si>
-  <si>
-    <t>Asignado a Claudia García (22/03/16)</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,9 +1505,7 @@
         <v>54</v>
       </c>
       <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
-        <v>219</v>
-      </c>
+      <c r="O4" s="12"/>
       <c r="P4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2108,9 +2091,7 @@
         <v>60</v>
       </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="42" t="s">
-        <v>222</v>
-      </c>
+      <c r="O14" s="42"/>
       <c r="P14" s="42" t="s">
         <v>19</v>
       </c>
@@ -2293,9 +2274,7 @@
         <v>56</v>
       </c>
       <c r="N17" s="11"/>
-      <c r="O17" s="12" t="s">
-        <v>223</v>
-      </c>
+      <c r="O17" s="12"/>
       <c r="P17" s="12" t="s">
         <v>19</v>
       </c>
@@ -2475,9 +2454,7 @@
       <c r="N20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>221</v>
-      </c>
+      <c r="O20" s="12"/>
       <c r="P20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2692,9 +2669,7 @@
       <c r="N24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>220</v>
-      </c>
+      <c r="O24" s="12"/>
       <c r="P24" s="12" t="s">
         <v>20</v>
       </c>

--- a/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado08/guion12/CS_08_12_CO_Escaleta.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -513,9 +513,6 @@
     <t>Conoce cómo participa la ciudadanía</t>
   </si>
   <si>
-    <t>Actividad que permite conocer los tipos de participación de la ciudadanía</t>
-  </si>
-  <si>
     <t>La participación ciudadana en Colombia</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t>Asignado a Diego Espitia (14/03/16)</t>
+  </si>
+  <si>
+    <t>Actividad que permite conocer cómo participa la ciudadanía</t>
   </si>
 </sst>
 </file>
@@ -968,24 +968,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1005,6 +987,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,8 +1314,8 @@
   <dimension ref="A1:X122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,94 +1344,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="39" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="49"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1513,16 +1513,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="U4" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1565,7 +1565,7 @@
         <v>43</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>20</v>
@@ -1574,16 +1574,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="T5" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>121</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>19</v>
@@ -1635,16 +1635,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S6" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T6" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="12"/>
@@ -1685,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>19</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S7" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T7" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="12"/>
@@ -1772,7 +1772,7 @@
         <v>123</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>136</v>
@@ -1801,7 +1801,7 @@
         <v>45</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>19</v>
@@ -1810,16 +1810,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T9" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
         <v>123</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>141</v>
@@ -1890,7 +1890,7 @@
         <v>123</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -1945,7 +1945,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>153</v>
@@ -1974,7 +1974,7 @@
         <v>24</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>19</v>
@@ -1983,16 +1983,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S12" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T12" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -2006,14 +2006,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H13" s="12">
         <v>10</v>
@@ -2022,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>19</v>
@@ -2070,7 +2070,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="42">
         <v>11</v>
@@ -2079,7 +2079,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K14" s="41" t="s">
         <v>20</v>
@@ -2099,16 +2099,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="S14" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="S14" s="44" t="s">
-        <v>180</v>
-      </c>
       <c r="T14" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U14" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -2138,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2151,7 +2151,7 @@
         <v>27</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>19</v>
@@ -2160,16 +2160,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S15" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S15" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T15" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -2212,7 +2212,7 @@
         <v>33</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>19</v>
@@ -2221,16 +2221,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S16" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S16" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T16" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U16" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -2246,14 +2246,14 @@
       <c r="D17" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="H17" s="12">
         <v>14</v>
@@ -2262,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>20</v>
@@ -2282,16 +2282,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="S17" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="S17" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="T17" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -2307,10 +2307,10 @@
       <c r="D18" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="12">
         <v>15</v>
@@ -2319,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>20</v>
@@ -2332,7 +2332,7 @@
         <v>36</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>19</v>
@@ -2341,16 +2341,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S18" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T18" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X18" s="23"/>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H19" s="12">
         <v>16</v>
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>20</v>
@@ -2394,7 +2394,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>19</v>
@@ -2403,16 +2403,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S19" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S19" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T19" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U19" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -2426,14 +2426,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H20" s="12">
         <v>17</v>
@@ -2442,7 +2442,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>20</v>
@@ -2462,16 +2462,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S20" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S20" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T20" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -2485,14 +2485,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H21" s="12">
         <v>18</v>
@@ -2501,7 +2501,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>19</v>
@@ -2525,7 +2525,7 @@
         <v>145</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U21" s="18" t="s">
         <v>147</v>
@@ -2542,10 +2542,10 @@
         <v>123</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="22" t="s">
@@ -2558,7 +2558,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="8"/>
@@ -2580,14 +2580,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H23" s="12">
         <v>20</v>
@@ -2596,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>20</v>
@@ -2609,7 +2609,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P23" s="12" t="s">
         <v>19</v>
@@ -2618,16 +2618,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S23" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T23" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -2641,14 +2641,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H24" s="12">
         <v>21</v>
@@ -2657,7 +2657,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>20</v>
@@ -2677,16 +2677,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="S24" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="S24" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="T24" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U24" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
@@ -3807,6 +3807,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:L2"/>
@@ -3818,16 +3828,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
